--- a/capiq_data/in_process_data/IQ427949.xlsx
+++ b/capiq_data/in_process_data/IQ427949.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D99D595-5EE1-40F4-8CDC-AF331A72C619}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99BC2B-2BE7-4CD8-BECB-DEFF2A5E84DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"1d82af0f-094f-4265-8f29-757b54245d6a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"44089836-cfc6-44c8-94a5-f080590f18ff"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$67</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$67</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$67</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$67</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$67</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$67</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$67</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$67</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$67</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$67</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$67</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$67</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$67</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$67</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$67</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$67</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$67</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$67</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$67</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$67</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$67</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$67</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$67</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$67</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$67</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$67</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,81 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ41999</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +808,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36525</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>27.062000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>100.985</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="E2">
-        <v>55.399000000000001</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="F2">
-        <v>55.518999999999998</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="G2">
-        <v>300.80099999999999</v>
+        <v>5.3280000000000003</v>
       </c>
       <c r="H2">
-        <v>441.85500000000002</v>
+        <v>12.8</v>
       </c>
       <c r="I2">
-        <v>9.51</v>
+        <v>3.266</v>
       </c>
       <c r="J2">
-        <v>16.8</v>
+        <v>4.4210000000000003</v>
       </c>
       <c r="K2">
-        <v>6.8410000000000002</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>82.77</v>
+        <v>6.1029999999999998</v>
       </c>
       <c r="O2">
-        <v>100.149</v>
+        <v>10.574</v>
       </c>
       <c r="P2">
-        <v>24.974</v>
+        <v>4.6459999999999999</v>
       </c>
       <c r="Q2">
-        <v>51.23</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36525</v>
       </c>
       <c r="S2">
-        <v>1760</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>341.70600000000002</v>
+        <v>2.226</v>
       </c>
       <c r="U2">
-        <v>147.86000000000001</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="V2">
-        <v>34.024999999999999</v>
+        <v>1.077</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>33.631999999999998</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +886,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>27.062000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36891</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>23.068000000000001</v>
+        <v>-2.0049999999999999</v>
       </c>
       <c r="D3">
-        <v>99.957999999999998</v>
+        <v>19.393999999999998</v>
       </c>
       <c r="E3">
-        <v>57.97</v>
+        <v>10.074999999999999</v>
       </c>
       <c r="F3">
-        <v>53.665999999999997</v>
+        <v>12.763999999999999</v>
       </c>
       <c r="G3">
-        <v>336.81</v>
+        <v>111.358</v>
       </c>
       <c r="H3">
-        <v>489.56700000000001</v>
+        <v>141.82599999999999</v>
       </c>
       <c r="I3">
-        <v>12.526</v>
+        <v>9.6129999999999995</v>
       </c>
       <c r="J3">
-        <v>18.084</v>
+        <v>7.8</v>
       </c>
       <c r="K3">
-        <v>6.5869999999999997</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-4.0439999999999996</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>83.400999999999996</v>
+        <v>26.783999999999999</v>
       </c>
       <c r="O3">
-        <v>103.279</v>
+        <v>34.584000000000003</v>
       </c>
       <c r="P3">
-        <v>26.202000000000002</v>
+        <v>10.529</v>
       </c>
       <c r="Q3">
-        <v>12.757999999999999</v>
+        <v>33.488</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36891</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="T3">
-        <v>386.28800000000001</v>
+        <v>107.242</v>
       </c>
       <c r="U3">
-        <v>160.61799999999999</v>
+        <v>86.486999999999995</v>
       </c>
       <c r="V3">
-        <v>10.154</v>
+        <v>8.8170000000000002</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>7.2439999999999998</v>
+        <v>34.145000000000003</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +969,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>23.068000000000001</v>
+        <v>-2.0049999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38442</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>30.736000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="D4">
-        <v>121.93600000000001</v>
+        <v>20.815000000000001</v>
       </c>
       <c r="E4">
-        <v>73.284000000000006</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>66.706000000000003</v>
+        <v>6.5964999999999998</v>
       </c>
       <c r="G4">
-        <v>399.8</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>561.38099999999997</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>14.884</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>17.893000000000001</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>7.2050000000000001</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1013,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>90.828000000000003</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>112.247</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>26.684000000000001</v>
+        <v>39.713000000000001</v>
       </c>
       <c r="Q4">
-        <v>27.577999999999999</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38442</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>449.13400000000001</v>
+        <v>45.47</v>
       </c>
       <c r="U4">
-        <v>188.196</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>16.838000000000001</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>22.443999999999999</v>
+        <v>1.409</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1052,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>30.736000000000001</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38533</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>32.869</v>
+        <v>1.075</v>
       </c>
       <c r="D5">
-        <v>129.06399999999999</v>
+        <v>22.843</v>
       </c>
       <c r="E5">
-        <v>80.361000000000004</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>70.459000000000003</v>
+        <v>7.3419999999999996</v>
       </c>
       <c r="G5">
-        <v>431.61200000000002</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>596.32399999999996</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.241</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>17.629000000000001</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>7.7309999999999999</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1096,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>110.658</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>131.71</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>26.905999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>8.39</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38533</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>464.61399999999998</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>196.58600000000001</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>29.003</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1.825</v>
+        <v>1.409</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1135,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>32.869</v>
+        <v>1.1759999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38625</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>31.085999999999999</v>
+        <v>1.3520000000000001</v>
       </c>
       <c r="D6">
-        <v>123.524</v>
+        <v>20.608000000000001</v>
       </c>
       <c r="E6">
-        <v>75.754999999999995</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>66.424000000000007</v>
+        <v>7.282</v>
       </c>
       <c r="G6">
-        <v>434.45699999999999</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>608.13199999999995</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.122</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16.949000000000002</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>7.0570000000000004</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,247 +1179,247 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>93.712000000000003</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>118.399</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>25.619</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>-16.352</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38625</v>
       </c>
       <c r="S6">
-        <v>2137</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>489.733</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>180.23400000000001</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>31.356000000000002</v>
+        <v>1.18</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.372</v>
+        <v>4.03</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-25.451000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>31.085999999999999</v>
+        <v>1.3520000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38717</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>29.914999999999999</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="D7">
-        <v>123.19199999999999</v>
+        <v>34.146999999999998</v>
       </c>
       <c r="E7">
-        <v>88.426000000000002</v>
+        <v>15.433999999999999</v>
       </c>
       <c r="F7">
-        <v>68.683999999999997</v>
+        <v>13.429</v>
       </c>
       <c r="G7">
-        <v>647.678</v>
+        <v>55.807000000000002</v>
       </c>
       <c r="H7">
-        <v>834.90499999999997</v>
+        <v>115.48099999999999</v>
       </c>
       <c r="I7">
-        <v>13.488</v>
+        <v>5.1639999999999997</v>
       </c>
       <c r="J7">
-        <v>16.263999999999999</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="K7">
-        <v>9.6519999999999992</v>
+        <v>8.7460000000000004</v>
       </c>
       <c r="L7">
-        <v>-2.3330000000000002</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.36</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>103.139</v>
+        <v>34.32</v>
       </c>
       <c r="O7">
-        <v>128.15199999999999</v>
+        <v>64.688999999999993</v>
       </c>
       <c r="P7">
-        <v>27.491</v>
+        <v>34.826999999999998</v>
       </c>
       <c r="Q7">
-        <v>196.83699999999999</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38717</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>706.75300000000004</v>
+        <v>50.792000000000002</v>
       </c>
       <c r="U7">
-        <v>377.07100000000003</v>
+        <v>8.3610000000000007</v>
       </c>
       <c r="V7">
-        <v>27.004999999999999</v>
+        <v>10.856999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>171.69900000000001</v>
+        <v>-5.7130000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>7.0010000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>29.914999999999999</v>
+        <v>3.9249999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38807</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>37.741999999999997</v>
+        <v>3.0670000000000002</v>
       </c>
       <c r="D8">
-        <v>137.92699999999999</v>
+        <v>32.743000000000002</v>
       </c>
       <c r="E8">
-        <v>86.132000000000005</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>74.91</v>
+        <v>12.465</v>
       </c>
       <c r="G8">
-        <v>602.95699999999999</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>798.01400000000001</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.742000000000001</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>4.0369999999999999</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-3.9380000000000002</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-2.1419999999999999</v>
       </c>
       <c r="N8">
-        <v>103.77800000000001</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>128.28299999999999</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>21.359000000000002</v>
+        <v>34.826999999999998</v>
       </c>
       <c r="Q8">
-        <v>-31.492999999999999</v>
+        <v>2.492</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38807</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>669.73099999999999</v>
+        <v>50.792000000000002</v>
       </c>
       <c r="U8">
-        <v>345.57799999999997</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>51.45</v>
+        <v>6.7939999999999996</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-60.652000000000001</v>
+        <v>-1.595</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>8.6859999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>37.741999999999997</v>
+        <v>3.0670000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38898</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>42.435000000000002</v>
+        <v>4.7830000000000004</v>
       </c>
       <c r="D9">
-        <v>156.37899999999999</v>
+        <v>32.183999999999997</v>
       </c>
       <c r="E9">
-        <v>110.649</v>
+        <v>18.131</v>
       </c>
       <c r="F9">
-        <v>85.959000000000003</v>
+        <v>13.343</v>
       </c>
       <c r="G9">
-        <v>661.10599999999999</v>
+        <v>68.480999999999995</v>
       </c>
       <c r="H9">
-        <v>878.38499999999999</v>
+        <v>131.99600000000001</v>
       </c>
       <c r="I9">
-        <v>14.291</v>
+        <v>6.2309999999999999</v>
       </c>
       <c r="J9">
-        <v>15.333</v>
+        <v>8.9670000000000005</v>
       </c>
       <c r="K9">
-        <v>4.9000000000000004</v>
+        <v>11.010999999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1428,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>121.28100000000001</v>
+        <v>45.76</v>
       </c>
       <c r="O9">
-        <v>148.81299999999999</v>
+        <v>71.813000000000002</v>
       </c>
       <c r="P9">
-        <v>21.805</v>
+        <v>35.279000000000003</v>
       </c>
       <c r="Q9">
-        <v>26.991</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38898</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="T9">
-        <v>729.572</v>
+        <v>60.183</v>
       </c>
       <c r="U9">
-        <v>372.56900000000002</v>
+        <v>11.282</v>
       </c>
       <c r="V9">
-        <v>38.049999999999997</v>
+        <v>3.5139999999999998</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>5.1550000000000002</v>
+        <v>2.004</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>9.7650000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>42.435000000000002</v>
+        <v>4.7830000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38990</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>34.911999999999999</v>
+        <v>4.7469999999999999</v>
       </c>
       <c r="D10">
-        <v>145.03</v>
+        <v>36.201000000000001</v>
       </c>
       <c r="E10">
-        <v>96.63</v>
+        <v>22.459</v>
       </c>
       <c r="F10">
-        <v>75.174000000000007</v>
+        <v>17.337</v>
       </c>
       <c r="G10">
-        <v>664.95899999999995</v>
+        <v>78.680999999999997</v>
       </c>
       <c r="H10">
-        <v>895.49800000000005</v>
+        <v>141.40100000000001</v>
       </c>
       <c r="I10">
-        <v>17.783000000000001</v>
+        <v>6.9509999999999996</v>
       </c>
       <c r="J10">
-        <v>14.869</v>
+        <v>13.125999999999999</v>
       </c>
       <c r="K10">
-        <v>2.4420000000000002</v>
+        <v>7.8860000000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,120 +1511,120 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>125.455</v>
+        <v>40.686999999999998</v>
       </c>
       <c r="O10">
-        <v>152.571</v>
+        <v>73.054000000000002</v>
       </c>
       <c r="P10">
-        <v>18.815999999999999</v>
+        <v>31.036999999999999</v>
       </c>
       <c r="Q10">
-        <v>11.484</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38990</v>
       </c>
       <c r="S10">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="T10">
-        <v>742.92700000000002</v>
+        <v>68.346999999999994</v>
       </c>
       <c r="U10">
-        <v>384.053</v>
+        <v>11.356999999999999</v>
       </c>
       <c r="V10">
-        <v>58.771000000000001</v>
+        <v>-0.433</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-34.115000000000002</v>
+        <v>5.3010000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>34.911999999999999</v>
+        <v>4.7469999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>39082</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>35.127000000000002</v>
+        <v>16.635999999999999</v>
       </c>
       <c r="D11">
-        <v>141.852</v>
+        <v>42.097000000000001</v>
       </c>
       <c r="E11">
-        <v>102.79300000000001</v>
+        <v>22.353000000000002</v>
       </c>
       <c r="F11">
-        <v>75.641000000000005</v>
+        <v>20.149000000000001</v>
       </c>
       <c r="G11">
-        <v>649.37099999999998</v>
+        <v>156.43899999999999</v>
       </c>
       <c r="H11">
-        <v>892.25800000000004</v>
+        <v>232.49199999999999</v>
       </c>
       <c r="I11">
-        <v>14.574999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="J11">
-        <v>13.247999999999999</v>
+        <v>30.068000000000001</v>
       </c>
       <c r="K11">
-        <v>9.8019999999999996</v>
+        <v>2.6030000000000002</v>
       </c>
       <c r="L11">
-        <v>-1.415</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-1.64</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>88.11</v>
+        <v>40.771000000000001</v>
       </c>
       <c r="O11">
-        <v>119.033</v>
+        <v>71.070999999999998</v>
       </c>
       <c r="P11">
-        <v>24.579000000000001</v>
+        <v>40.97</v>
       </c>
       <c r="Q11">
-        <v>-28.338000000000001</v>
+        <v>64.31</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>39082</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="T11">
-        <v>773.22500000000002</v>
+        <v>161.42099999999999</v>
       </c>
       <c r="U11">
-        <v>355.71499999999997</v>
+        <v>75.667000000000002</v>
       </c>
       <c r="V11">
-        <v>-11.339</v>
+        <v>9.327</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>8.0259999999999998</v>
+        <v>61.198999999999998</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,81 +1633,81 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>35.127000000000002</v>
+        <v>16.635999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>39172</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>41.72</v>
+        <v>6.6130000000000004</v>
       </c>
       <c r="D12">
-        <v>168.17099999999999</v>
+        <v>41.753</v>
       </c>
       <c r="E12">
-        <v>114.498</v>
+        <v>24.413</v>
       </c>
       <c r="F12">
-        <v>89.921999999999997</v>
+        <v>19.331</v>
       </c>
       <c r="G12">
-        <v>691.58500000000004</v>
+        <v>133.43899999999999</v>
       </c>
       <c r="H12">
-        <v>939.255</v>
+        <v>220.42400000000001</v>
       </c>
       <c r="I12">
-        <v>18.524999999999999</v>
+        <v>8.64</v>
       </c>
       <c r="J12">
-        <v>12.577999999999999</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>1.8220000000000001</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-7.7690000000000001</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-18.177</v>
       </c>
       <c r="N12">
-        <v>95.201999999999998</v>
+        <v>30.984000000000002</v>
       </c>
       <c r="O12">
-        <v>123.288</v>
+        <v>51.201999999999998</v>
       </c>
       <c r="P12">
-        <v>15.733000000000001</v>
+        <v>20.847999999999999</v>
       </c>
       <c r="Q12">
-        <v>13.769</v>
+        <v>-26.538</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>39172</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>815.96699999999998</v>
+        <v>169.22200000000001</v>
       </c>
       <c r="U12">
-        <v>369.48399999999998</v>
+        <v>49.128999999999998</v>
       </c>
       <c r="V12">
-        <v>35.613</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-6.2990000000000004</v>
+        <v>-19.870999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1716,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>41.72</v>
+        <v>6.6130000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39263</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>42.338000000000001</v>
+        <v>6.3879999999999999</v>
       </c>
       <c r="D13">
-        <v>172.15199999999999</v>
+        <v>43.951999999999998</v>
       </c>
       <c r="E13">
-        <v>120.64</v>
+        <v>26.725999999999999</v>
       </c>
       <c r="F13">
-        <v>92.813000000000002</v>
+        <v>20.318999999999999</v>
       </c>
       <c r="G13">
-        <v>749.20799999999997</v>
+        <v>148.63800000000001</v>
       </c>
       <c r="H13">
-        <v>1009.796</v>
+        <v>240.125</v>
       </c>
       <c r="I13">
-        <v>14.292999999999999</v>
+        <v>10.788</v>
       </c>
       <c r="J13">
-        <v>12.16</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>1.5469999999999999</v>
+        <v>10.731999999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1760,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>105.807</v>
+        <v>37.83</v>
       </c>
       <c r="O13">
-        <v>134.10900000000001</v>
+        <v>62.784999999999997</v>
       </c>
       <c r="P13">
-        <v>15.04</v>
+        <v>30.731999999999999</v>
       </c>
       <c r="Q13">
-        <v>28.870999999999999</v>
+        <v>-2.42</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39263</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>875.68700000000001</v>
+        <v>177.34</v>
       </c>
       <c r="U13">
-        <v>398.35500000000002</v>
+        <v>46.709000000000003</v>
       </c>
       <c r="V13">
-        <v>36.686999999999998</v>
+        <v>-2.569</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1.6970000000000001</v>
+        <v>10.725</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1799,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>42.338000000000001</v>
+        <v>6.3879999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39355</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>36.594999999999999</v>
+        <v>8.5570000000000004</v>
       </c>
       <c r="D14">
-        <v>165.85900000000001</v>
+        <v>47.905000000000001</v>
       </c>
       <c r="E14">
-        <v>103.803</v>
+        <v>33.277000000000001</v>
       </c>
       <c r="F14">
-        <v>81.522000000000006</v>
+        <v>21.704999999999998</v>
       </c>
       <c r="G14">
-        <v>786.34299999999996</v>
+        <v>161.32300000000001</v>
       </c>
       <c r="H14">
-        <v>1061.2159999999999</v>
+        <v>258.21199999999999</v>
       </c>
       <c r="I14">
-        <v>18.786999999999999</v>
+        <v>9.2040000000000006</v>
       </c>
       <c r="J14">
-        <v>11.756</v>
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>3.2959999999999998</v>
+        <v>15.566000000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,247 +1843,247 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>100.07899999999999</v>
+        <v>42.878</v>
       </c>
       <c r="O14">
-        <v>133.24700000000001</v>
+        <v>66.608999999999995</v>
       </c>
       <c r="P14">
-        <v>16.385000000000002</v>
+        <v>35.566000000000003</v>
       </c>
       <c r="Q14">
-        <v>50.420999999999999</v>
+        <v>-1.9590000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39355</v>
       </c>
       <c r="S14">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>927.96900000000005</v>
+        <v>191.60300000000001</v>
       </c>
       <c r="U14">
-        <v>448.77600000000001</v>
+        <v>44.75</v>
       </c>
       <c r="V14">
-        <v>58.405999999999999</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>10.725</v>
+        <v>5.4279999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0.495</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>36.594999999999999</v>
+        <v>8.5570000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39447</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>40.530999999999999</v>
+        <v>8.3369999999999997</v>
       </c>
       <c r="D15">
-        <v>170.57499999999999</v>
+        <v>55.067</v>
       </c>
       <c r="E15">
-        <v>107.598</v>
+        <v>33.945999999999998</v>
       </c>
       <c r="F15">
-        <v>89.284000000000006</v>
+        <v>23.626999999999999</v>
       </c>
       <c r="G15">
-        <v>825.13300000000004</v>
+        <v>155.691</v>
       </c>
       <c r="H15">
-        <v>1097.0129999999999</v>
+        <v>263.32100000000003</v>
       </c>
       <c r="I15">
-        <v>18.62</v>
+        <v>9.4440000000000008</v>
       </c>
       <c r="J15">
-        <v>11.361000000000001</v>
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>2.2999999999999998</v>
+        <v>11.218</v>
       </c>
       <c r="L15">
-        <v>-11.861000000000001</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>103.27800000000001</v>
+        <v>34.481999999999999</v>
       </c>
       <c r="O15">
-        <v>135.697</v>
+        <v>58.686</v>
       </c>
       <c r="P15">
-        <v>14.994</v>
+        <v>31.218</v>
       </c>
       <c r="Q15">
-        <v>31.832999999999998</v>
+        <v>-6.7779999999999996</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39447</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="T15">
-        <v>961.31600000000003</v>
+        <v>204.63499999999999</v>
       </c>
       <c r="U15">
-        <v>480.60899999999998</v>
+        <v>37.972000000000001</v>
       </c>
       <c r="V15">
-        <v>43.390999999999998</v>
+        <v>11.163</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0.871</v>
+        <v>-3.069</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-6.95</v>
       </c>
       <c r="AA15">
-        <v>40.530999999999999</v>
+        <v>8.3369999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39538</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>48.283000000000001</v>
+        <v>8.1489999999999991</v>
       </c>
       <c r="D16">
-        <v>192.20400000000001</v>
+        <v>52.875999999999998</v>
       </c>
       <c r="E16">
-        <v>124.14400000000001</v>
+        <v>37.268999999999998</v>
       </c>
       <c r="F16">
-        <v>104.227</v>
+        <v>24.4</v>
       </c>
       <c r="G16">
-        <v>854.09199999999998</v>
+        <v>165.37200000000001</v>
       </c>
       <c r="H16">
-        <v>1158.386</v>
+        <v>287.755</v>
       </c>
       <c r="I16">
-        <v>15.058999999999999</v>
+        <v>11.364000000000001</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>2.7240000000000002</v>
+        <v>15.336</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-2.585</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>113.172</v>
+        <v>45.404000000000003</v>
       </c>
       <c r="O16">
-        <v>134.52600000000001</v>
+        <v>67.552999999999997</v>
       </c>
       <c r="P16">
-        <v>15.015000000000001</v>
+        <v>35.335999999999999</v>
       </c>
       <c r="Q16">
-        <v>2.823</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39538</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1023.86</v>
+        <v>220.202</v>
       </c>
       <c r="U16">
-        <v>483.43200000000002</v>
+        <v>38.698</v>
       </c>
       <c r="V16">
-        <v>33.484000000000002</v>
+        <v>5.359</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>3.7320000000000002</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AA16">
-        <v>48.283000000000001</v>
+        <v>8.1489999999999991</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39629</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>55.2</v>
+        <v>8.5519999999999996</v>
       </c>
       <c r="D17">
-        <v>199.65100000000001</v>
+        <v>55.994</v>
       </c>
       <c r="E17">
-        <v>136.62899999999999</v>
+        <v>37.747</v>
       </c>
       <c r="F17">
-        <v>109.09</v>
+        <v>26.946999999999999</v>
       </c>
       <c r="G17">
-        <v>863.25400000000002</v>
+        <v>176.006</v>
       </c>
       <c r="H17">
-        <v>1185.3879999999999</v>
+        <v>303.03100000000001</v>
       </c>
       <c r="I17">
-        <v>18.969000000000001</v>
+        <v>9.6129999999999995</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>18.71</v>
       </c>
       <c r="K17">
-        <v>2.2759999999999998</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2092,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>128.01300000000001</v>
+        <v>50.923999999999999</v>
       </c>
       <c r="O17">
-        <v>148.685</v>
+        <v>72.278999999999996</v>
       </c>
       <c r="P17">
-        <v>14.164</v>
+        <v>39.893000000000001</v>
       </c>
       <c r="Q17">
-        <v>4.0860000000000003</v>
+        <v>6.2279999999999998</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39629</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1036.703</v>
+        <v>230.75200000000001</v>
       </c>
       <c r="U17">
-        <v>487.51799999999997</v>
+        <v>44.926000000000002</v>
       </c>
       <c r="V17">
-        <v>47.212000000000003</v>
+        <v>6.2889999999999997</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>3.7999999999999999E-2</v>
+        <v>6.3440000000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>55.2</v>
+        <v>8.5519999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39721</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>56.430999999999997</v>
+        <v>10.893000000000001</v>
       </c>
       <c r="D18">
-        <v>207.40199999999999</v>
+        <v>62.012</v>
       </c>
       <c r="E18">
-        <v>143.10900000000001</v>
+        <v>39.503</v>
       </c>
       <c r="F18">
-        <v>113.917</v>
+        <v>29.422000000000001</v>
       </c>
       <c r="G18">
-        <v>893.83799999999997</v>
+        <v>173.75299999999999</v>
       </c>
       <c r="H18">
-        <v>1210.8869999999999</v>
+        <v>303.91699999999997</v>
       </c>
       <c r="I18">
-        <v>17.140999999999998</v>
+        <v>10.031000000000001</v>
       </c>
       <c r="J18">
-        <v>19.667000000000002</v>
+        <v>18.356000000000002</v>
       </c>
       <c r="K18">
-        <v>2.6309999999999998</v>
+        <v>16.001000000000001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2175,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>122.075</v>
+        <v>49.404000000000003</v>
       </c>
       <c r="O18">
-        <v>164.32599999999999</v>
+        <v>70.602000000000004</v>
       </c>
       <c r="P18">
-        <v>35.631</v>
+        <v>35.69</v>
       </c>
       <c r="Q18">
-        <v>34.631999999999998</v>
+        <v>-0.58699999999999997</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39721</v>
       </c>
       <c r="S18">
-        <v>3030</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1046.5609999999999</v>
+        <v>233.315</v>
       </c>
       <c r="U18">
-        <v>522.15</v>
+        <v>44.338999999999999</v>
       </c>
       <c r="V18">
-        <v>56.018000000000001</v>
+        <v>13.378</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>6.8879999999999999</v>
+        <v>-4.375</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2214,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>56.430999999999997</v>
+        <v>10.893000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39813</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>57.359000000000002</v>
+        <v>9.06</v>
       </c>
       <c r="D19">
-        <v>198.96</v>
+        <v>58.194000000000003</v>
       </c>
       <c r="E19">
-        <v>149.78100000000001</v>
+        <v>41.841999999999999</v>
       </c>
       <c r="F19">
-        <v>107.827</v>
+        <v>26.530999999999999</v>
       </c>
       <c r="G19">
-        <v>931.02800000000002</v>
+        <v>181.023</v>
       </c>
       <c r="H19">
-        <v>1249.26</v>
+        <v>313.21800000000002</v>
       </c>
       <c r="I19">
-        <v>15.916</v>
+        <v>7.7389999999999999</v>
       </c>
       <c r="J19">
-        <v>19.167000000000002</v>
+        <v>17.997</v>
       </c>
       <c r="K19">
-        <v>0.52300000000000002</v>
+        <v>19.768999999999998</v>
       </c>
       <c r="L19">
-        <v>-5.4880000000000004</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.83299999999999996</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>123.13</v>
+        <v>49.026000000000003</v>
       </c>
       <c r="O19">
-        <v>168.74100000000001</v>
+        <v>69.918999999999997</v>
       </c>
       <c r="P19">
-        <v>32.774999999999999</v>
+        <v>39.098999999999997</v>
       </c>
       <c r="Q19">
-        <v>19.324000000000002</v>
+        <v>6.944</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39813</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="T19">
-        <v>1080.519</v>
+        <v>243.29900000000001</v>
       </c>
       <c r="U19">
-        <v>541.47400000000005</v>
+        <v>51.283000000000001</v>
       </c>
       <c r="V19">
-        <v>52.008000000000003</v>
+        <v>9.6449999999999996</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>6.4770000000000003</v>
+        <v>4.8319999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,81 +2297,81 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>57.359000000000002</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39903</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>61.298999999999999</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="D20">
-        <v>235.13800000000001</v>
+        <v>45.408000000000001</v>
       </c>
       <c r="E20">
-        <v>169.828</v>
+        <v>29.74</v>
       </c>
       <c r="F20">
-        <v>128.703</v>
+        <v>15.861000000000001</v>
       </c>
       <c r="G20">
-        <v>1002.37</v>
+        <v>183.678</v>
       </c>
       <c r="H20">
-        <v>1334.5409999999999</v>
+        <v>313.80500000000001</v>
       </c>
       <c r="I20">
-        <v>21.536999999999999</v>
+        <v>5.0289999999999999</v>
       </c>
       <c r="J20">
-        <v>18.667000000000002</v>
+        <v>17.649000000000001</v>
       </c>
       <c r="K20">
-        <v>1.6</v>
+        <v>29.76</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-3.298</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-0.34399999999999997</v>
       </c>
       <c r="N20">
-        <v>125.771</v>
+        <v>56.33</v>
       </c>
       <c r="O20">
-        <v>170.786</v>
+        <v>76.067999999999998</v>
       </c>
       <c r="P20">
-        <v>22.266999999999999</v>
+        <v>48.741999999999997</v>
       </c>
       <c r="Q20">
-        <v>30.033999999999999</v>
+        <v>20.318000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39903</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1163.7550000000001</v>
+        <v>237.73699999999999</v>
       </c>
       <c r="U20">
-        <v>571.50800000000004</v>
+        <v>71.600999999999999</v>
       </c>
       <c r="V20">
-        <v>49.402000000000001</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-4.3479999999999999</v>
+        <v>9.5679999999999996</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2380,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>61.298999999999999</v>
+        <v>1.2709999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39994</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>62.792000000000002</v>
+        <v>-1.2290000000000001</v>
       </c>
       <c r="D21">
-        <v>243.541</v>
+        <v>40.384999999999998</v>
       </c>
       <c r="E21">
-        <v>154.81399999999999</v>
+        <v>32.006</v>
       </c>
       <c r="F21">
-        <v>133.304</v>
+        <v>11.772</v>
       </c>
       <c r="G21">
-        <v>1078.0719999999999</v>
+        <v>189.83099999999999</v>
       </c>
       <c r="H21">
-        <v>1408.2059999999999</v>
+        <v>323.101</v>
       </c>
       <c r="I21">
-        <v>20.861999999999998</v>
+        <v>6.0650000000000004</v>
       </c>
       <c r="J21">
-        <v>18.167000000000002</v>
+        <v>17.334</v>
       </c>
       <c r="K21">
-        <v>0.248</v>
+        <v>31.401</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2424,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>148.85</v>
+        <v>59.723999999999997</v>
       </c>
       <c r="O21">
-        <v>192.32</v>
+        <v>78.876999999999995</v>
       </c>
       <c r="P21">
-        <v>20.414999999999999</v>
+        <v>50.067999999999998</v>
       </c>
       <c r="Q21">
-        <v>79.712000000000003</v>
+        <v>6.4669999999999996</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39994</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1215.886</v>
+        <v>244.22399999999999</v>
       </c>
       <c r="U21">
-        <v>651.22</v>
+        <v>78.067999999999998</v>
       </c>
       <c r="V21">
-        <v>93.200999999999993</v>
+        <v>6.29</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-0.92500000000000004</v>
+        <v>1.51</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2463,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>62.790999999999997</v>
+        <v>-1.2290000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>40086</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>60.704000000000001</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="D22">
-        <v>223.626</v>
+        <v>45.808</v>
       </c>
       <c r="E22">
-        <v>150.47900000000001</v>
+        <v>29.768000000000001</v>
       </c>
       <c r="F22">
-        <v>122.04300000000001</v>
+        <v>16.722999999999999</v>
       </c>
       <c r="G22">
-        <v>1102.5889999999999</v>
+        <v>184.06299999999999</v>
       </c>
       <c r="H22">
-        <v>1453.4290000000001</v>
+        <v>318.93900000000002</v>
       </c>
       <c r="I22">
-        <v>26.314</v>
+        <v>4.6239999999999997</v>
       </c>
       <c r="J22">
-        <v>17.667000000000002</v>
+        <v>18.273</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.476000000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,247 +2507,247 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>141.79</v>
+        <v>46.250999999999998</v>
       </c>
       <c r="O22">
-        <v>192.76400000000001</v>
+        <v>65.736000000000004</v>
       </c>
       <c r="P22">
-        <v>19.667000000000002</v>
+        <v>35.082000000000001</v>
       </c>
       <c r="Q22">
-        <v>-68.688000000000002</v>
+        <v>-1.7589999999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>40086</v>
       </c>
       <c r="S22">
-        <v>3740</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1260.665</v>
+        <v>253.203</v>
       </c>
       <c r="U22">
-        <v>582.53200000000004</v>
+        <v>76.308999999999997</v>
       </c>
       <c r="V22">
-        <v>61.96</v>
+        <v>13.891999999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>4.1660000000000004</v>
+        <v>-14.923</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-106.747</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>60.704000000000001</v>
+        <v>2.2549999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>40178</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>49.326000000000001</v>
+        <v>3.1219999999999999</v>
       </c>
       <c r="D23">
-        <v>207.24799999999999</v>
+        <v>54.292999999999999</v>
       </c>
       <c r="E23">
-        <v>146.505</v>
+        <v>30.356000000000002</v>
       </c>
       <c r="F23">
-        <v>114.41</v>
+        <v>19.911999999999999</v>
       </c>
       <c r="G23">
-        <v>1197.6389999999999</v>
+        <v>180.91399999999999</v>
       </c>
       <c r="H23">
-        <v>1550.1</v>
+        <v>312.63600000000002</v>
       </c>
       <c r="I23">
-        <v>20.277000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="J23">
-        <v>17.167000000000002</v>
+        <v>17.792000000000002</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.0069999999999997</v>
       </c>
       <c r="L23">
-        <v>-2.2229999999999999</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>150.67099999999999</v>
+        <v>36.831000000000003</v>
       </c>
       <c r="O23">
-        <v>203.102</v>
+        <v>56.064999999999998</v>
       </c>
       <c r="P23">
-        <v>19.167000000000002</v>
+        <v>25.132000000000001</v>
       </c>
       <c r="Q23">
-        <v>31.16</v>
+        <v>6.6109999999999998</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>40178</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="T23">
-        <v>1346.998</v>
+        <v>256.57100000000003</v>
       </c>
       <c r="U23">
-        <v>613.69200000000001</v>
+        <v>82.92</v>
       </c>
       <c r="V23">
-        <v>64.897000000000006</v>
+        <v>16.713000000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>2.1349999999999998</v>
+        <v>-8.4350000000000005</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-19.899000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>49.326000000000001</v>
+        <v>3.1219999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40268</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>67.058999999999997</v>
+        <v>3.3969999999999998</v>
       </c>
       <c r="D24">
-        <v>252.78700000000001</v>
+        <v>51.204000000000001</v>
       </c>
       <c r="E24">
-        <v>151.476</v>
+        <v>30.077999999999999</v>
       </c>
       <c r="F24">
-        <v>137.703</v>
+        <v>20.547000000000001</v>
       </c>
       <c r="G24">
-        <v>1197.2470000000001</v>
+        <v>185.161</v>
       </c>
       <c r="H24">
-        <v>1629.307</v>
+        <v>315.20699999999999</v>
       </c>
       <c r="I24">
-        <v>20.414000000000001</v>
+        <v>5.8239999999999998</v>
       </c>
       <c r="J24">
-        <v>39.228999999999999</v>
+        <v>17.574999999999999</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>7.0979999999999999</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-3.1120000000000001</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="N24">
-        <v>134.976</v>
+        <v>44.128999999999998</v>
       </c>
       <c r="O24">
-        <v>206.14400000000001</v>
+        <v>62.755000000000003</v>
       </c>
       <c r="P24">
-        <v>42.417000000000002</v>
+        <v>26.006</v>
       </c>
       <c r="Q24">
-        <v>-26.405999999999999</v>
+        <v>1.4870000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40268</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1423.163</v>
+        <v>252.452</v>
       </c>
       <c r="U24">
-        <v>587.28599999999994</v>
+        <v>84.406999999999996</v>
       </c>
       <c r="V24">
-        <v>43.406999999999996</v>
+        <v>7.8760000000000003</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>28.244</v>
+        <v>1.04</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-0.59199999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>67.058000000000007</v>
+        <v>3.3969999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40359</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>69.234999999999999</v>
+        <v>10.305999999999999</v>
       </c>
       <c r="D25">
-        <v>266.017</v>
+        <v>67.257999999999996</v>
       </c>
       <c r="E25">
-        <v>162.72499999999999</v>
+        <v>39.906999999999996</v>
       </c>
       <c r="F25">
-        <v>144.791</v>
+        <v>30.460999999999999</v>
       </c>
       <c r="G25">
-        <v>1276.498</v>
+        <v>204.87899999999999</v>
       </c>
       <c r="H25">
-        <v>1727.298</v>
+        <v>333.72399999999999</v>
       </c>
       <c r="I25">
-        <v>17.899000000000001</v>
+        <v>10.427</v>
       </c>
       <c r="J25">
-        <v>38.432000000000002</v>
+        <v>18.068999999999999</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2756,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>155.62700000000001</v>
+        <v>63.326999999999998</v>
       </c>
       <c r="O25">
-        <v>224.28200000000001</v>
+        <v>81.400999999999996</v>
       </c>
       <c r="P25">
-        <v>41.62</v>
+        <v>25.702000000000002</v>
       </c>
       <c r="Q25">
-        <v>58.271999999999998</v>
+        <v>6.2480000000000002</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40359</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1503.0160000000001</v>
+        <v>252.32300000000001</v>
       </c>
       <c r="U25">
-        <v>645.55799999999999</v>
+        <v>90.655000000000001</v>
       </c>
       <c r="V25">
-        <v>87.540999999999997</v>
+        <v>15.561999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-3.673</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>69.234999999999999</v>
+        <v>10.305999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40451</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>75.132000000000005</v>
+        <v>13.226000000000001</v>
       </c>
       <c r="D26">
-        <v>280.12099999999998</v>
+        <v>79.808999999999997</v>
       </c>
       <c r="E26">
-        <v>155.90100000000001</v>
+        <v>53.72</v>
       </c>
       <c r="F26">
-        <v>155.33500000000001</v>
+        <v>39.930999999999997</v>
       </c>
       <c r="G26">
-        <v>1300.962</v>
+        <v>239.613</v>
       </c>
       <c r="H26">
-        <v>1789.999</v>
+        <v>373.976</v>
       </c>
       <c r="I26">
-        <v>28.047999999999998</v>
+        <v>10.663</v>
       </c>
       <c r="J26">
-        <v>37.634999999999998</v>
+        <v>17.882999999999999</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>4.6340000000000003</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,247 +2839,247 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>158.27500000000001</v>
+        <v>70.548000000000002</v>
       </c>
       <c r="O26">
-        <v>232.27500000000001</v>
+        <v>88.524000000000001</v>
       </c>
       <c r="P26">
-        <v>40.823</v>
+        <v>23.85</v>
       </c>
       <c r="Q26">
-        <v>-21.702999999999999</v>
+        <v>5.9749999999999996</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40451</v>
       </c>
       <c r="S26">
-        <v>4230</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1557.7239999999999</v>
+        <v>285.452</v>
       </c>
       <c r="U26">
-        <v>623.85500000000002</v>
+        <v>96.63</v>
       </c>
       <c r="V26">
-        <v>101.851</v>
+        <v>5.9690000000000003</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0.73699999999999999</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-80.134</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>75.132000000000005</v>
+        <v>13.226000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40543</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>74.944999999999993</v>
+        <v>27.062000000000001</v>
       </c>
       <c r="D27">
-        <v>285.846</v>
+        <v>100.985</v>
       </c>
       <c r="E27">
-        <v>180.226</v>
+        <v>55.399000000000001</v>
       </c>
       <c r="F27">
-        <v>157.267</v>
+        <v>55.518999999999998</v>
       </c>
       <c r="G27">
-        <v>1391.0139999999999</v>
+        <v>300.80099999999999</v>
       </c>
       <c r="H27">
-        <v>1902.5730000000001</v>
+        <v>441.85500000000002</v>
       </c>
       <c r="I27">
-        <v>25.388000000000002</v>
+        <v>9.51</v>
       </c>
       <c r="J27">
-        <v>36.838999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>6.8410000000000002</v>
       </c>
       <c r="L27">
-        <v>-1.9339999999999999</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-0.79700000000000004</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>157.73599999999999</v>
+        <v>82.77</v>
       </c>
       <c r="O27">
-        <v>236.30099999999999</v>
+        <v>100.149</v>
       </c>
       <c r="P27">
-        <v>40.027000000000001</v>
+        <v>24.974</v>
       </c>
       <c r="Q27">
-        <v>73.923000000000002</v>
+        <v>51.23</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40543</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="T27">
-        <v>1666.2719999999999</v>
+        <v>341.70600000000002</v>
       </c>
       <c r="U27">
-        <v>697.77800000000002</v>
+        <v>147.86000000000001</v>
       </c>
       <c r="V27">
-        <v>50.82</v>
+        <v>34.024999999999999</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-3.7360000000000002</v>
+        <v>33.631999999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>42.197000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>74.944999999999993</v>
+        <v>27.062000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40633</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>104.116</v>
+        <v>23.068000000000001</v>
       </c>
       <c r="D28">
-        <v>369.37299999999999</v>
+        <v>99.957999999999998</v>
       </c>
       <c r="E28">
-        <v>237.33199999999999</v>
+        <v>57.97</v>
       </c>
       <c r="F28">
-        <v>206.29599999999999</v>
+        <v>53.665999999999997</v>
       </c>
       <c r="G28">
-        <v>1510.7739999999999</v>
+        <v>336.81</v>
       </c>
       <c r="H28">
-        <v>2030.5419999999999</v>
+        <v>489.56700000000001</v>
       </c>
       <c r="I28">
-        <v>28.995999999999999</v>
+        <v>12.526</v>
       </c>
       <c r="J28">
-        <v>21.375</v>
+        <v>18.084</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>6.5869999999999997</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-4.0439999999999996</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="N28">
-        <v>156.785</v>
+        <v>83.400999999999996</v>
       </c>
       <c r="O28">
-        <v>226.185</v>
+        <v>103.279</v>
       </c>
       <c r="P28">
-        <v>22.562999999999999</v>
+        <v>26.202000000000002</v>
       </c>
       <c r="Q28">
-        <v>110.333</v>
+        <v>12.757999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40633</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1804.357</v>
+        <v>386.28800000000001</v>
       </c>
       <c r="U28">
-        <v>808.11099999999999</v>
+        <v>160.61799999999999</v>
       </c>
       <c r="V28">
-        <v>82.281999999999996</v>
+        <v>10.154</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-21.681000000000001</v>
+        <v>7.2439999999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>42.73</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>104.116</v>
+        <v>23.068000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40724</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>115.59699999999999</v>
+        <v>30.736000000000001</v>
       </c>
       <c r="D29">
-        <v>392.61500000000001</v>
+        <v>121.93600000000001</v>
       </c>
       <c r="E29">
-        <v>226.756</v>
+        <v>73.284000000000006</v>
       </c>
       <c r="F29">
-        <v>224.55500000000001</v>
+        <v>66.706000000000003</v>
       </c>
       <c r="G29">
-        <v>1642.539</v>
+        <v>399.8</v>
       </c>
       <c r="H29">
-        <v>2246.0650000000001</v>
+        <v>561.38099999999997</v>
       </c>
       <c r="I29">
-        <v>34.271000000000001</v>
+        <v>14.884</v>
       </c>
       <c r="J29">
-        <v>46.295999999999999</v>
+        <v>17.893000000000001</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>7.2050000000000001</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3088,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>182.191</v>
+        <v>90.828000000000003</v>
       </c>
       <c r="O29">
-        <v>286.96600000000001</v>
+        <v>112.247</v>
       </c>
       <c r="P29">
-        <v>49.872</v>
+        <v>26.684000000000001</v>
       </c>
       <c r="Q29">
-        <v>72.156000000000006</v>
+        <v>27.577999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40724</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1959.0989999999999</v>
+        <v>449.13400000000001</v>
       </c>
       <c r="U29">
-        <v>880.26700000000005</v>
+        <v>188.196</v>
       </c>
       <c r="V29">
-        <v>163.74799999999999</v>
+        <v>16.838000000000001</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>30.654</v>
+        <v>22.443999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-43.369</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>115.59699999999999</v>
+        <v>30.736000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40816</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>52.956000000000003</v>
+        <v>32.869</v>
       </c>
       <c r="D30">
-        <v>361.05500000000001</v>
+        <v>129.06399999999999</v>
       </c>
       <c r="E30">
-        <v>237.27799999999999</v>
+        <v>80.361000000000004</v>
       </c>
       <c r="F30">
-        <v>208.79300000000001</v>
+        <v>70.459000000000003</v>
       </c>
       <c r="G30">
-        <v>1754.01</v>
+        <v>431.61200000000002</v>
       </c>
       <c r="H30">
-        <v>2367.2550000000001</v>
+        <v>596.32399999999996</v>
       </c>
       <c r="I30">
-        <v>35.109000000000002</v>
+        <v>15.241</v>
       </c>
       <c r="J30">
-        <v>45.378</v>
+        <v>17.629000000000001</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>7.7309999999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,247 +3171,247 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>198.90299999999999</v>
+        <v>110.658</v>
       </c>
       <c r="O30">
-        <v>344.93299999999999</v>
+        <v>131.71</v>
       </c>
       <c r="P30">
-        <v>48.981999999999999</v>
+        <v>26.905999999999999</v>
       </c>
       <c r="Q30">
-        <v>29.632999999999999</v>
+        <v>8.39</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40816</v>
       </c>
       <c r="S30">
-        <v>5030</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>2022.3219999999999</v>
+        <v>464.61399999999998</v>
       </c>
       <c r="U30">
-        <v>909.9</v>
+        <v>196.58600000000001</v>
       </c>
       <c r="V30">
-        <v>108.545</v>
+        <v>29.003</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-8.609</v>
+        <v>1.825</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-40.875</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>52.956000000000003</v>
+        <v>32.869</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40908</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>106.334</v>
+        <v>31.085999999999999</v>
       </c>
       <c r="D31">
-        <v>359.86399999999998</v>
+        <v>123.524</v>
       </c>
       <c r="E31">
-        <v>235.477</v>
+        <v>75.754999999999995</v>
       </c>
       <c r="F31">
-        <v>203.36199999999999</v>
+        <v>66.424000000000007</v>
       </c>
       <c r="G31">
-        <v>1864.886</v>
+        <v>434.45699999999999</v>
       </c>
       <c r="H31">
-        <v>2498.0070000000001</v>
+        <v>608.13199999999995</v>
       </c>
       <c r="I31">
-        <v>33.369</v>
+        <v>11.122</v>
       </c>
       <c r="J31">
-        <v>44.466000000000001</v>
+        <v>16.949000000000002</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>7.0570000000000004</v>
       </c>
       <c r="L31">
-        <v>-0.255</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.89500000000000002</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>195.56</v>
+        <v>93.712000000000003</v>
       </c>
       <c r="O31">
-        <v>352.63799999999998</v>
+        <v>118.399</v>
       </c>
       <c r="P31">
-        <v>48.087000000000003</v>
+        <v>25.619</v>
       </c>
       <c r="Q31">
-        <v>59.222999999999999</v>
+        <v>-16.352</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40908</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>2137</v>
       </c>
       <c r="T31">
-        <v>2145.3690000000001</v>
+        <v>489.733</v>
       </c>
       <c r="U31">
-        <v>969.12300000000005</v>
+        <v>180.23400000000001</v>
       </c>
       <c r="V31">
-        <v>99.653000000000006</v>
+        <v>31.356000000000002</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-17.853000000000002</v>
+        <v>0.372</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-0.61599999999999999</v>
+        <v>-25.451000000000001</v>
       </c>
       <c r="AA31">
-        <v>106.334</v>
+        <v>31.085999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40999</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>121.617</v>
+        <v>29.914999999999999</v>
       </c>
       <c r="D32">
-        <v>413.613</v>
+        <v>123.19199999999999</v>
       </c>
       <c r="E32">
-        <v>242.12799999999999</v>
+        <v>88.426000000000002</v>
       </c>
       <c r="F32">
-        <v>234.97499999999999</v>
+        <v>68.683999999999997</v>
       </c>
       <c r="G32">
-        <v>1836.0350000000001</v>
+        <v>647.678</v>
       </c>
       <c r="H32">
-        <v>2530.4780000000001</v>
+        <v>834.90499999999997</v>
       </c>
       <c r="I32">
-        <v>42.988999999999997</v>
+        <v>13.488</v>
       </c>
       <c r="J32">
-        <v>43.551000000000002</v>
+        <v>16.263999999999999</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>9.6519999999999992</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-2.3330000000000002</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-0.36</v>
       </c>
       <c r="N32">
-        <v>210.279</v>
+        <v>103.139</v>
       </c>
       <c r="O32">
-        <v>358.32100000000003</v>
+        <v>128.15199999999999</v>
       </c>
       <c r="P32">
-        <v>47.188000000000002</v>
+        <v>27.491</v>
       </c>
       <c r="Q32">
-        <v>-152.33099999999999</v>
+        <v>196.83699999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40999</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2172.1570000000002</v>
+        <v>706.75300000000004</v>
       </c>
       <c r="U32">
-        <v>816.79200000000003</v>
+        <v>377.07100000000003</v>
       </c>
       <c r="V32">
-        <v>108.898</v>
+        <v>27.004999999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-24.373999999999999</v>
+        <v>171.69900000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-127.596</v>
+        <v>7.0010000000000003</v>
       </c>
       <c r="AA32">
-        <v>121.617</v>
+        <v>29.914999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>41090</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>100.517</v>
+        <v>37.741999999999997</v>
       </c>
       <c r="D33">
-        <v>356.346</v>
+        <v>137.92699999999999</v>
       </c>
       <c r="E33">
-        <v>251.613</v>
+        <v>86.132000000000005</v>
       </c>
       <c r="F33">
-        <v>195.184</v>
+        <v>74.91</v>
       </c>
       <c r="G33">
-        <v>1882.2850000000001</v>
+        <v>602.95699999999999</v>
       </c>
       <c r="H33">
-        <v>2562.0990000000002</v>
+        <v>798.01400000000001</v>
       </c>
       <c r="I33">
-        <v>29.494</v>
+        <v>13.2</v>
       </c>
       <c r="J33">
-        <v>42.631</v>
+        <v>15.742000000000001</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>4.0369999999999999</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3420,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>217.98500000000001</v>
+        <v>103.77800000000001</v>
       </c>
       <c r="O33">
-        <v>355.291</v>
+        <v>128.28299999999999</v>
       </c>
       <c r="P33">
-        <v>46.284999999999997</v>
+        <v>21.359000000000002</v>
       </c>
       <c r="Q33">
-        <v>-169.18600000000001</v>
+        <v>-31.492999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>41090</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2206.808</v>
+        <v>669.73099999999999</v>
       </c>
       <c r="U33">
-        <v>647.60599999999999</v>
+        <v>345.57799999999997</v>
       </c>
       <c r="V33">
-        <v>71.7</v>
+        <v>51.45</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-59.902000000000001</v>
+        <v>-60.652000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-151.94</v>
+        <v>8.6859999999999999</v>
       </c>
       <c r="AA33">
-        <v>100.517</v>
+        <v>37.741999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>41182</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>75.558999999999997</v>
+        <v>42.435000000000002</v>
       </c>
       <c r="D34">
-        <v>330.05099999999999</v>
+        <v>156.37899999999999</v>
       </c>
       <c r="E34">
-        <v>265.61099999999999</v>
+        <v>110.649</v>
       </c>
       <c r="F34">
-        <v>166.74799999999999</v>
+        <v>85.959000000000003</v>
       </c>
       <c r="G34">
-        <v>1805.424</v>
+        <v>661.10599999999999</v>
       </c>
       <c r="H34">
-        <v>2574.4499999999998</v>
+        <v>878.38499999999999</v>
       </c>
       <c r="I34">
-        <v>36.302</v>
+        <v>14.291</v>
       </c>
       <c r="J34">
-        <v>41.707000000000001</v>
+        <v>15.333</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,247 +3503,247 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>245.774</v>
+        <v>121.28100000000001</v>
       </c>
       <c r="O34">
-        <v>368.21499999999997</v>
+        <v>148.81299999999999</v>
       </c>
       <c r="P34">
-        <v>45.378</v>
+        <v>21.805</v>
       </c>
       <c r="Q34">
-        <v>-103.248</v>
+        <v>26.991</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>41182</v>
       </c>
       <c r="S34">
-        <v>6220</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>2206.2350000000001</v>
+        <v>729.572</v>
       </c>
       <c r="U34">
-        <v>544.35799999999995</v>
+        <v>372.56900000000002</v>
       </c>
       <c r="V34">
-        <v>113.05</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-64.518000000000001</v>
+        <v>5.1550000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-14.83</v>
+        <v>9.7650000000000006</v>
       </c>
       <c r="AA34">
-        <v>75.558999999999997</v>
+        <v>42.435000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41274</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>55.158999999999999</v>
+        <v>34.911999999999999</v>
       </c>
       <c r="D35">
-        <v>315.04700000000003</v>
+        <v>145.03</v>
       </c>
       <c r="E35">
-        <v>237.43700000000001</v>
+        <v>96.63</v>
       </c>
       <c r="F35">
-        <v>148.911</v>
+        <v>75.174000000000007</v>
       </c>
       <c r="G35">
-        <v>1792.0940000000001</v>
+        <v>664.95899999999995</v>
       </c>
       <c r="H35">
-        <v>2628.7359999999999</v>
+        <v>895.49800000000005</v>
       </c>
       <c r="I35">
-        <v>39.97</v>
+        <v>17.783000000000001</v>
       </c>
       <c r="J35">
-        <v>40.779000000000003</v>
+        <v>14.869</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-0.91100000000000003</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>209.816</v>
+        <v>125.455</v>
       </c>
       <c r="O35">
-        <v>360.44799999999998</v>
+        <v>152.571</v>
       </c>
       <c r="P35">
-        <v>68.638000000000005</v>
+        <v>18.815999999999999</v>
       </c>
       <c r="Q35">
-        <v>7.4459999999999997</v>
+        <v>11.484</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41274</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="T35">
-        <v>2268.288</v>
+        <v>742.92700000000002</v>
       </c>
       <c r="U35">
-        <v>548.93799999999999</v>
+        <v>384.053</v>
       </c>
       <c r="V35">
-        <v>43.655000000000001</v>
+        <v>58.771000000000001</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-7.06</v>
+        <v>-34.115000000000002</v>
       </c>
       <c r="Y35">
-        <v>19.170000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>24.754999999999999</v>
+        <v>-1E-3</v>
       </c>
       <c r="AA35">
-        <v>55.158999999999999</v>
+        <v>34.911999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41364</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>72.272000000000006</v>
+        <v>35.127000000000002</v>
       </c>
       <c r="D36">
-        <v>363.76900000000001</v>
+        <v>141.852</v>
       </c>
       <c r="E36">
-        <v>273.697</v>
+        <v>102.79300000000001</v>
       </c>
       <c r="F36">
-        <v>180.23699999999999</v>
+        <v>75.641000000000005</v>
       </c>
       <c r="G36">
-        <v>1863.0820000000001</v>
+        <v>649.37099999999998</v>
       </c>
       <c r="H36">
-        <v>2737.4160000000002</v>
+        <v>892.25800000000004</v>
       </c>
       <c r="I36">
-        <v>38.015999999999998</v>
+        <v>14.574999999999999</v>
       </c>
       <c r="J36">
-        <v>39.845999999999997</v>
+        <v>13.247999999999999</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>9.8019999999999996</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-1.415</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-1.64</v>
       </c>
       <c r="N36">
-        <v>222.22800000000001</v>
+        <v>88.11</v>
       </c>
       <c r="O36">
-        <v>370.05500000000001</v>
+        <v>119.033</v>
       </c>
       <c r="P36">
-        <v>70.572999999999993</v>
+        <v>24.579000000000001</v>
       </c>
       <c r="Q36">
-        <v>-18.827000000000002</v>
+        <v>-28.338000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41364</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2367.3609999999999</v>
+        <v>773.22500000000002</v>
       </c>
       <c r="U36">
-        <v>530.01300000000003</v>
+        <v>355.71499999999997</v>
       </c>
       <c r="V36">
-        <v>58.124000000000002</v>
+        <v>-11.339</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>2.9169999999999998</v>
+        <v>8.0259999999999998</v>
       </c>
       <c r="Y36">
-        <v>21.375</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-29.902999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>72.272000000000006</v>
+        <v>35.127000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41455</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>57.253</v>
+        <v>41.72</v>
       </c>
       <c r="D37">
-        <v>329.13799999999998</v>
+        <v>168.17099999999999</v>
       </c>
       <c r="E37">
-        <v>263.53199999999998</v>
+        <v>114.498</v>
       </c>
       <c r="F37">
-        <v>152.858</v>
+        <v>89.921999999999997</v>
       </c>
       <c r="G37">
-        <v>1865.5150000000001</v>
+        <v>691.58500000000004</v>
       </c>
       <c r="H37">
-        <v>2730.904</v>
+        <v>939.255</v>
       </c>
       <c r="I37">
-        <v>30.466000000000001</v>
+        <v>18.524999999999999</v>
       </c>
       <c r="J37">
-        <v>38.908999999999999</v>
+        <v>12.577999999999999</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3752,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>205.56299999999999</v>
+        <v>95.201999999999998</v>
       </c>
       <c r="O37">
-        <v>350.24400000000003</v>
+        <v>123.288</v>
       </c>
       <c r="P37">
-        <v>69.099000000000004</v>
+        <v>15.733000000000001</v>
       </c>
       <c r="Q37">
-        <v>50.140999999999998</v>
+        <v>13.769</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41455</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2380.66</v>
+        <v>815.96699999999998</v>
       </c>
       <c r="U37">
-        <v>580.32899999999995</v>
+        <v>369.48399999999998</v>
       </c>
       <c r="V37">
-        <v>91.802999999999997</v>
+        <v>35.613</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-22.881</v>
+        <v>-6.2990000000000004</v>
       </c>
       <c r="Y37">
-        <v>21.152999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>15.975</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>57.253</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41547</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-4.45</v>
+        <v>42.338000000000001</v>
       </c>
       <c r="D38">
-        <v>306.62700000000001</v>
+        <v>172.15199999999999</v>
       </c>
       <c r="E38">
-        <v>248.124</v>
+        <v>120.64</v>
       </c>
       <c r="F38">
-        <v>124.203</v>
+        <v>92.813000000000002</v>
       </c>
       <c r="G38">
-        <v>1896.634</v>
+        <v>749.20799999999997</v>
       </c>
       <c r="H38">
-        <v>2730.4360000000001</v>
+        <v>1009.796</v>
       </c>
       <c r="I38">
-        <v>27.329000000000001</v>
+        <v>14.292999999999999</v>
       </c>
       <c r="J38">
-        <v>37.968000000000004</v>
+        <v>12.16</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.5469999999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,247 +3835,247 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>191.904</v>
+        <v>105.807</v>
       </c>
       <c r="O38">
-        <v>327.99299999999999</v>
+        <v>134.10900000000001</v>
       </c>
       <c r="P38">
-        <v>67.418000000000006</v>
+        <v>15.04</v>
       </c>
       <c r="Q38">
-        <v>99.866</v>
+        <v>28.870999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41547</v>
       </c>
       <c r="S38">
-        <v>5960</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>2402.4430000000002</v>
+        <v>875.68700000000001</v>
       </c>
       <c r="U38">
-        <v>680.07</v>
+        <v>398.35500000000002</v>
       </c>
       <c r="V38">
-        <v>129.93899999999999</v>
+        <v>36.686999999999998</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-10.042999999999999</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="Y38">
-        <v>20.41</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-3.0489999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-4.45</v>
+        <v>42.338000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41639</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>36.402999999999999</v>
+        <v>36.594999999999999</v>
       </c>
       <c r="D39">
-        <v>249.24199999999999</v>
+        <v>165.85900000000001</v>
       </c>
       <c r="E39">
-        <v>209.292</v>
+        <v>103.803</v>
       </c>
       <c r="F39">
-        <v>102.876</v>
+        <v>81.522000000000006</v>
       </c>
       <c r="G39">
-        <v>1874.5260000000001</v>
+        <v>786.34299999999996</v>
       </c>
       <c r="H39">
-        <v>2680.134</v>
+        <v>1061.2159999999999</v>
       </c>
       <c r="I39">
-        <v>39.648000000000003</v>
+        <v>18.786999999999999</v>
       </c>
       <c r="J39">
-        <v>37.021999999999998</v>
+        <v>11.756</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-0.92800000000000005</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>195.43199999999999</v>
+        <v>100.07899999999999</v>
       </c>
       <c r="O39">
-        <v>324.20400000000001</v>
+        <v>133.24700000000001</v>
       </c>
       <c r="P39">
-        <v>45.744999999999997</v>
+        <v>16.385000000000002</v>
       </c>
       <c r="Q39">
-        <v>-110.643</v>
+        <v>50.420999999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41639</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="T39">
-        <v>2355.9299999999998</v>
+        <v>927.96900000000005</v>
       </c>
       <c r="U39">
-        <v>570.05799999999999</v>
+        <v>448.77600000000001</v>
       </c>
       <c r="V39">
-        <v>56.780999999999999</v>
+        <v>58.405999999999999</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-20.792000000000002</v>
+        <v>10.725</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-122.17100000000001</v>
+        <v>0.495</v>
       </c>
       <c r="AA39">
-        <v>36.402999999999999</v>
+        <v>36.594999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41729</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>38.225999999999999</v>
+        <v>40.530999999999999</v>
       </c>
       <c r="D40">
-        <v>296.411</v>
+        <v>170.57499999999999</v>
       </c>
       <c r="E40">
-        <v>211.917</v>
+        <v>107.598</v>
       </c>
       <c r="F40">
-        <v>136.44900000000001</v>
+        <v>89.284000000000006</v>
       </c>
       <c r="G40">
-        <v>1950.5260000000001</v>
+        <v>825.13300000000004</v>
       </c>
       <c r="H40">
-        <v>2758.7359999999999</v>
+        <v>1097.0129999999999</v>
       </c>
       <c r="I40">
-        <v>42.261000000000003</v>
+        <v>18.62</v>
       </c>
       <c r="J40">
-        <v>36.070999999999998</v>
+        <v>11.361000000000001</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>-11.861000000000001</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="N40">
-        <v>195.286</v>
+        <v>103.27800000000001</v>
       </c>
       <c r="O40">
-        <v>321.43</v>
+        <v>135.697</v>
       </c>
       <c r="P40">
-        <v>44.984000000000002</v>
+        <v>14.994</v>
       </c>
       <c r="Q40">
-        <v>177.70099999999999</v>
+        <v>31.832999999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41729</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2437.306</v>
+        <v>961.31600000000003</v>
       </c>
       <c r="U40">
-        <v>747.85900000000004</v>
+        <v>480.60899999999998</v>
       </c>
       <c r="V40">
-        <v>73.474999999999994</v>
+        <v>43.390999999999998</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-2.6789999999999998</v>
+        <v>0.871</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>123.762</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>38.225999999999999</v>
+        <v>40.530999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41820</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>35.603999999999999</v>
+        <v>48.283000000000001</v>
       </c>
       <c r="D41">
-        <v>318.44099999999997</v>
+        <v>192.20400000000001</v>
       </c>
       <c r="E41">
-        <v>247.12299999999999</v>
+        <v>124.14400000000001</v>
       </c>
       <c r="F41">
-        <v>152.792</v>
+        <v>104.227</v>
       </c>
       <c r="G41">
-        <v>2031.653</v>
+        <v>854.09199999999998</v>
       </c>
       <c r="H41">
-        <v>2794.9319999999998</v>
+        <v>1158.386</v>
       </c>
       <c r="I41">
-        <v>37.375</v>
+        <v>15.058999999999999</v>
       </c>
       <c r="J41">
-        <v>35.116999999999997</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>2.7240000000000002</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4084,2203 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>201.44499999999999</v>
+        <v>113.172</v>
       </c>
       <c r="O41">
-        <v>323.858</v>
+        <v>134.52600000000001</v>
       </c>
       <c r="P41">
-        <v>44.481999999999999</v>
+        <v>15.015000000000001</v>
       </c>
       <c r="Q41">
-        <v>16.007999999999999</v>
+        <v>2.823</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41820</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2471.0740000000001</v>
+        <v>1023.86</v>
       </c>
       <c r="U41">
-        <v>763.92</v>
+        <v>483.43200000000002</v>
       </c>
       <c r="V41">
-        <v>69.760999999999996</v>
+        <v>33.484000000000002</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-2.0939999999999999</v>
+        <v>3.7320000000000002</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-36.503999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>35.603999999999999</v>
+        <v>48.283000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41912</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>55.2</v>
+      </c>
+      <c r="D42">
+        <v>199.65100000000001</v>
+      </c>
+      <c r="E42">
+        <v>136.62899999999999</v>
+      </c>
+      <c r="F42">
+        <v>109.09</v>
+      </c>
+      <c r="G42">
+        <v>863.25400000000002</v>
+      </c>
+      <c r="H42">
+        <v>1185.3879999999999</v>
+      </c>
+      <c r="I42">
+        <v>18.969000000000001</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>128.01300000000001</v>
+      </c>
+      <c r="O42">
+        <v>148.685</v>
+      </c>
+      <c r="P42">
+        <v>14.164</v>
+      </c>
+      <c r="Q42">
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="R42">
+        <v>41912</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1036.703</v>
+      </c>
+      <c r="U42">
+        <v>487.51799999999997</v>
+      </c>
+      <c r="V42">
+        <v>47.212000000000003</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>56.430999999999997</v>
+      </c>
+      <c r="D43">
+        <v>207.40199999999999</v>
+      </c>
+      <c r="E43">
+        <v>143.10900000000001</v>
+      </c>
+      <c r="F43">
+        <v>113.917</v>
+      </c>
+      <c r="G43">
+        <v>893.83799999999997</v>
+      </c>
+      <c r="H43">
+        <v>1210.8869999999999</v>
+      </c>
+      <c r="I43">
+        <v>17.140999999999998</v>
+      </c>
+      <c r="J43">
+        <v>19.667000000000002</v>
+      </c>
+      <c r="K43">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>122.075</v>
+      </c>
+      <c r="O43">
+        <v>164.32599999999999</v>
+      </c>
+      <c r="P43">
+        <v>35.631</v>
+      </c>
+      <c r="Q43">
+        <v>34.631999999999998</v>
+      </c>
+      <c r="R43">
+        <v>42004</v>
+      </c>
+      <c r="S43">
+        <v>3030</v>
+      </c>
+      <c r="T43">
+        <v>1046.5609999999999</v>
+      </c>
+      <c r="U43">
+        <v>522.15</v>
+      </c>
+      <c r="V43">
+        <v>56.018000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>6.8879999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>56.430999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>57.359000000000002</v>
+      </c>
+      <c r="D44">
+        <v>198.96</v>
+      </c>
+      <c r="E44">
+        <v>149.78100000000001</v>
+      </c>
+      <c r="F44">
+        <v>107.827</v>
+      </c>
+      <c r="G44">
+        <v>931.02800000000002</v>
+      </c>
+      <c r="H44">
+        <v>1249.26</v>
+      </c>
+      <c r="I44">
+        <v>15.916</v>
+      </c>
+      <c r="J44">
+        <v>19.167000000000002</v>
+      </c>
+      <c r="K44">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="L44">
+        <v>-5.4880000000000004</v>
+      </c>
+      <c r="M44">
+        <v>-0.83299999999999996</v>
+      </c>
+      <c r="N44">
+        <v>123.13</v>
+      </c>
+      <c r="O44">
+        <v>168.74100000000001</v>
+      </c>
+      <c r="P44">
+        <v>32.774999999999999</v>
+      </c>
+      <c r="Q44">
+        <v>19.324000000000002</v>
+      </c>
+      <c r="R44">
+        <v>42094</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1080.519</v>
+      </c>
+      <c r="U44">
+        <v>541.47400000000005</v>
+      </c>
+      <c r="V44">
+        <v>52.008000000000003</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>6.4770000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>57.359000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>61.298999999999999</v>
+      </c>
+      <c r="D45">
+        <v>235.13800000000001</v>
+      </c>
+      <c r="E45">
+        <v>169.828</v>
+      </c>
+      <c r="F45">
+        <v>128.703</v>
+      </c>
+      <c r="G45">
+        <v>1002.37</v>
+      </c>
+      <c r="H45">
+        <v>1334.5409999999999</v>
+      </c>
+      <c r="I45">
+        <v>21.536999999999999</v>
+      </c>
+      <c r="J45">
+        <v>18.667000000000002</v>
+      </c>
+      <c r="K45">
+        <v>1.6</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>125.771</v>
+      </c>
+      <c r="O45">
+        <v>170.786</v>
+      </c>
+      <c r="P45">
+        <v>22.266999999999999</v>
+      </c>
+      <c r="Q45">
+        <v>30.033999999999999</v>
+      </c>
+      <c r="R45">
+        <v>42185</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1163.7550000000001</v>
+      </c>
+      <c r="U45">
+        <v>571.50800000000004</v>
+      </c>
+      <c r="V45">
+        <v>49.402000000000001</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-4.3479999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>61.298999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>62.792000000000002</v>
+      </c>
+      <c r="D46">
+        <v>243.541</v>
+      </c>
+      <c r="E46">
+        <v>154.81399999999999</v>
+      </c>
+      <c r="F46">
+        <v>133.304</v>
+      </c>
+      <c r="G46">
+        <v>1078.0719999999999</v>
+      </c>
+      <c r="H46">
+        <v>1408.2059999999999</v>
+      </c>
+      <c r="I46">
+        <v>20.861999999999998</v>
+      </c>
+      <c r="J46">
+        <v>18.167000000000002</v>
+      </c>
+      <c r="K46">
+        <v>0.248</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>148.85</v>
+      </c>
+      <c r="O46">
+        <v>192.32</v>
+      </c>
+      <c r="P46">
+        <v>20.414999999999999</v>
+      </c>
+      <c r="Q46">
+        <v>79.712000000000003</v>
+      </c>
+      <c r="R46">
+        <v>42277</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1215.886</v>
+      </c>
+      <c r="U46">
+        <v>651.22</v>
+      </c>
+      <c r="V46">
+        <v>93.200999999999993</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-0.92500000000000004</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>62.790999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>60.704000000000001</v>
+      </c>
+      <c r="D47">
+        <v>223.626</v>
+      </c>
+      <c r="E47">
+        <v>150.47900000000001</v>
+      </c>
+      <c r="F47">
+        <v>122.04300000000001</v>
+      </c>
+      <c r="G47">
+        <v>1102.5889999999999</v>
+      </c>
+      <c r="H47">
+        <v>1453.4290000000001</v>
+      </c>
+      <c r="I47">
+        <v>26.314</v>
+      </c>
+      <c r="J47">
+        <v>17.667000000000002</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>141.79</v>
+      </c>
+      <c r="O47">
+        <v>192.76400000000001</v>
+      </c>
+      <c r="P47">
+        <v>19.667000000000002</v>
+      </c>
+      <c r="Q47">
+        <v>-68.688000000000002</v>
+      </c>
+      <c r="R47">
+        <v>42369</v>
+      </c>
+      <c r="S47">
+        <v>3740</v>
+      </c>
+      <c r="T47">
+        <v>1260.665</v>
+      </c>
+      <c r="U47">
+        <v>582.53200000000004</v>
+      </c>
+      <c r="V47">
+        <v>61.96</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>4.1660000000000004</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-106.747</v>
+      </c>
+      <c r="AA47">
+        <v>60.704000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>49.326000000000001</v>
+      </c>
+      <c r="D48">
+        <v>207.24799999999999</v>
+      </c>
+      <c r="E48">
+        <v>146.505</v>
+      </c>
+      <c r="F48">
+        <v>114.41</v>
+      </c>
+      <c r="G48">
+        <v>1197.6389999999999</v>
+      </c>
+      <c r="H48">
+        <v>1550.1</v>
+      </c>
+      <c r="I48">
+        <v>20.277000000000001</v>
+      </c>
+      <c r="J48">
+        <v>17.167000000000002</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>-2.2229999999999999</v>
+      </c>
+      <c r="M48">
+        <v>-0.5</v>
+      </c>
+      <c r="N48">
+        <v>150.67099999999999</v>
+      </c>
+      <c r="O48">
+        <v>203.102</v>
+      </c>
+      <c r="P48">
+        <v>19.167000000000002</v>
+      </c>
+      <c r="Q48">
+        <v>31.16</v>
+      </c>
+      <c r="R48">
+        <v>42460</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1346.998</v>
+      </c>
+      <c r="U48">
+        <v>613.69200000000001</v>
+      </c>
+      <c r="V48">
+        <v>64.897000000000006</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-19.899000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>49.326000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>67.058999999999997</v>
+      </c>
+      <c r="D49">
+        <v>252.78700000000001</v>
+      </c>
+      <c r="E49">
+        <v>151.476</v>
+      </c>
+      <c r="F49">
+        <v>137.703</v>
+      </c>
+      <c r="G49">
+        <v>1197.2470000000001</v>
+      </c>
+      <c r="H49">
+        <v>1629.307</v>
+      </c>
+      <c r="I49">
+        <v>20.414000000000001</v>
+      </c>
+      <c r="J49">
+        <v>39.228999999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>134.976</v>
+      </c>
+      <c r="O49">
+        <v>206.14400000000001</v>
+      </c>
+      <c r="P49">
+        <v>42.417000000000002</v>
+      </c>
+      <c r="Q49">
+        <v>-26.405999999999999</v>
+      </c>
+      <c r="R49">
+        <v>42551</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1423.163</v>
+      </c>
+      <c r="U49">
+        <v>587.28599999999994</v>
+      </c>
+      <c r="V49">
+        <v>43.406999999999996</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>28.244</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-0.59199999999999997</v>
+      </c>
+      <c r="AA49">
+        <v>67.058000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>69.234999999999999</v>
+      </c>
+      <c r="D50">
+        <v>266.017</v>
+      </c>
+      <c r="E50">
+        <v>162.72499999999999</v>
+      </c>
+      <c r="F50">
+        <v>144.791</v>
+      </c>
+      <c r="G50">
+        <v>1276.498</v>
+      </c>
+      <c r="H50">
+        <v>1727.298</v>
+      </c>
+      <c r="I50">
+        <v>17.899000000000001</v>
+      </c>
+      <c r="J50">
+        <v>38.432000000000002</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>155.62700000000001</v>
+      </c>
+      <c r="O50">
+        <v>224.28200000000001</v>
+      </c>
+      <c r="P50">
+        <v>41.62</v>
+      </c>
+      <c r="Q50">
+        <v>58.271999999999998</v>
+      </c>
+      <c r="R50">
+        <v>42643</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1503.0160000000001</v>
+      </c>
+      <c r="U50">
+        <v>645.55799999999999</v>
+      </c>
+      <c r="V50">
+        <v>87.540999999999997</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-3.673</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="AA50">
+        <v>69.234999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>75.132000000000005</v>
+      </c>
+      <c r="D51">
+        <v>280.12099999999998</v>
+      </c>
+      <c r="E51">
+        <v>155.90100000000001</v>
+      </c>
+      <c r="F51">
+        <v>155.33500000000001</v>
+      </c>
+      <c r="G51">
+        <v>1300.962</v>
+      </c>
+      <c r="H51">
+        <v>1789.999</v>
+      </c>
+      <c r="I51">
+        <v>28.047999999999998</v>
+      </c>
+      <c r="J51">
+        <v>37.634999999999998</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>158.27500000000001</v>
+      </c>
+      <c r="O51">
+        <v>232.27500000000001</v>
+      </c>
+      <c r="P51">
+        <v>40.823</v>
+      </c>
+      <c r="Q51">
+        <v>-21.702999999999999</v>
+      </c>
+      <c r="R51">
+        <v>42735</v>
+      </c>
+      <c r="S51">
+        <v>4230</v>
+      </c>
+      <c r="T51">
+        <v>1557.7239999999999</v>
+      </c>
+      <c r="U51">
+        <v>623.85500000000002</v>
+      </c>
+      <c r="V51">
+        <v>101.851</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-80.134</v>
+      </c>
+      <c r="AA51">
+        <v>75.132000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>74.944999999999993</v>
+      </c>
+      <c r="D52">
+        <v>285.846</v>
+      </c>
+      <c r="E52">
+        <v>180.226</v>
+      </c>
+      <c r="F52">
+        <v>157.267</v>
+      </c>
+      <c r="G52">
+        <v>1391.0139999999999</v>
+      </c>
+      <c r="H52">
+        <v>1902.5730000000001</v>
+      </c>
+      <c r="I52">
+        <v>25.388000000000002</v>
+      </c>
+      <c r="J52">
+        <v>36.838999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>-1.9339999999999999</v>
+      </c>
+      <c r="M52">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="N52">
+        <v>157.73599999999999</v>
+      </c>
+      <c r="O52">
+        <v>236.30099999999999</v>
+      </c>
+      <c r="P52">
+        <v>40.027000000000001</v>
+      </c>
+      <c r="Q52">
+        <v>73.923000000000002</v>
+      </c>
+      <c r="R52">
+        <v>42825</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1666.2719999999999</v>
+      </c>
+      <c r="U52">
+        <v>697.77800000000002</v>
+      </c>
+      <c r="V52">
+        <v>50.82</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-3.7360000000000002</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>42.197000000000003</v>
+      </c>
+      <c r="AA52">
+        <v>74.944999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>104.116</v>
+      </c>
+      <c r="D53">
+        <v>369.37299999999999</v>
+      </c>
+      <c r="E53">
+        <v>237.33199999999999</v>
+      </c>
+      <c r="F53">
+        <v>206.29599999999999</v>
+      </c>
+      <c r="G53">
+        <v>1510.7739999999999</v>
+      </c>
+      <c r="H53">
+        <v>2030.5419999999999</v>
+      </c>
+      <c r="I53">
+        <v>28.995999999999999</v>
+      </c>
+      <c r="J53">
+        <v>21.375</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>156.785</v>
+      </c>
+      <c r="O53">
+        <v>226.185</v>
+      </c>
+      <c r="P53">
+        <v>22.562999999999999</v>
+      </c>
+      <c r="Q53">
+        <v>110.333</v>
+      </c>
+      <c r="R53">
+        <v>42916</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1804.357</v>
+      </c>
+      <c r="U53">
+        <v>808.11099999999999</v>
+      </c>
+      <c r="V53">
+        <v>82.281999999999996</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-21.681000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>42.73</v>
+      </c>
+      <c r="AA53">
+        <v>104.116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>115.59699999999999</v>
+      </c>
+      <c r="D54">
+        <v>392.61500000000001</v>
+      </c>
+      <c r="E54">
+        <v>226.756</v>
+      </c>
+      <c r="F54">
+        <v>224.55500000000001</v>
+      </c>
+      <c r="G54">
+        <v>1642.539</v>
+      </c>
+      <c r="H54">
+        <v>2246.0650000000001</v>
+      </c>
+      <c r="I54">
+        <v>34.271000000000001</v>
+      </c>
+      <c r="J54">
+        <v>46.295999999999999</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>182.191</v>
+      </c>
+      <c r="O54">
+        <v>286.96600000000001</v>
+      </c>
+      <c r="P54">
+        <v>49.872</v>
+      </c>
+      <c r="Q54">
+        <v>72.156000000000006</v>
+      </c>
+      <c r="R54">
+        <v>43008</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1959.0989999999999</v>
+      </c>
+      <c r="U54">
+        <v>880.26700000000005</v>
+      </c>
+      <c r="V54">
+        <v>163.74799999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>30.654</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-43.369</v>
+      </c>
+      <c r="AA54">
+        <v>115.59699999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>52.956000000000003</v>
+      </c>
+      <c r="D55">
+        <v>361.05500000000001</v>
+      </c>
+      <c r="E55">
+        <v>237.27799999999999</v>
+      </c>
+      <c r="F55">
+        <v>208.79300000000001</v>
+      </c>
+      <c r="G55">
+        <v>1754.01</v>
+      </c>
+      <c r="H55">
+        <v>2367.2550000000001</v>
+      </c>
+      <c r="I55">
+        <v>35.109000000000002</v>
+      </c>
+      <c r="J55">
+        <v>45.378</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>198.90299999999999</v>
+      </c>
+      <c r="O55">
+        <v>344.93299999999999</v>
+      </c>
+      <c r="P55">
+        <v>48.981999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>29.632999999999999</v>
+      </c>
+      <c r="R55">
+        <v>43100</v>
+      </c>
+      <c r="S55">
+        <v>5030</v>
+      </c>
+      <c r="T55">
+        <v>2022.3219999999999</v>
+      </c>
+      <c r="U55">
+        <v>909.9</v>
+      </c>
+      <c r="V55">
+        <v>108.545</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-8.609</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-40.875</v>
+      </c>
+      <c r="AA55">
+        <v>52.956000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>106.334</v>
+      </c>
+      <c r="D56">
+        <v>359.86399999999998</v>
+      </c>
+      <c r="E56">
+        <v>235.477</v>
+      </c>
+      <c r="F56">
+        <v>203.36199999999999</v>
+      </c>
+      <c r="G56">
+        <v>1864.886</v>
+      </c>
+      <c r="H56">
+        <v>2498.0070000000001</v>
+      </c>
+      <c r="I56">
+        <v>33.369</v>
+      </c>
+      <c r="J56">
+        <v>44.466000000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>-0.255</v>
+      </c>
+      <c r="M56">
+        <v>-0.89500000000000002</v>
+      </c>
+      <c r="N56">
+        <v>195.56</v>
+      </c>
+      <c r="O56">
+        <v>352.63799999999998</v>
+      </c>
+      <c r="P56">
+        <v>48.087000000000003</v>
+      </c>
+      <c r="Q56">
+        <v>59.222999999999999</v>
+      </c>
+      <c r="R56">
+        <v>43190</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2145.3690000000001</v>
+      </c>
+      <c r="U56">
+        <v>969.12300000000005</v>
+      </c>
+      <c r="V56">
+        <v>99.653000000000006</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-17.853000000000002</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-0.61599999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>106.334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>121.617</v>
+      </c>
+      <c r="D57">
+        <v>413.613</v>
+      </c>
+      <c r="E57">
+        <v>242.12799999999999</v>
+      </c>
+      <c r="F57">
+        <v>234.97499999999999</v>
+      </c>
+      <c r="G57">
+        <v>1836.0350000000001</v>
+      </c>
+      <c r="H57">
+        <v>2530.4780000000001</v>
+      </c>
+      <c r="I57">
+        <v>42.988999999999997</v>
+      </c>
+      <c r="J57">
+        <v>43.551000000000002</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>210.279</v>
+      </c>
+      <c r="O57">
+        <v>358.32100000000003</v>
+      </c>
+      <c r="P57">
+        <v>47.188000000000002</v>
+      </c>
+      <c r="Q57">
+        <v>-152.33099999999999</v>
+      </c>
+      <c r="R57">
+        <v>43281</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2172.1570000000002</v>
+      </c>
+      <c r="U57">
+        <v>816.79200000000003</v>
+      </c>
+      <c r="V57">
+        <v>108.898</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-24.373999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-127.596</v>
+      </c>
+      <c r="AA57">
+        <v>121.617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>100.517</v>
+      </c>
+      <c r="D58">
+        <v>356.346</v>
+      </c>
+      <c r="E58">
+        <v>251.613</v>
+      </c>
+      <c r="F58">
+        <v>195.184</v>
+      </c>
+      <c r="G58">
+        <v>1882.2850000000001</v>
+      </c>
+      <c r="H58">
+        <v>2562.0990000000002</v>
+      </c>
+      <c r="I58">
+        <v>29.494</v>
+      </c>
+      <c r="J58">
+        <v>42.631</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>217.98500000000001</v>
+      </c>
+      <c r="O58">
+        <v>355.291</v>
+      </c>
+      <c r="P58">
+        <v>46.284999999999997</v>
+      </c>
+      <c r="Q58">
+        <v>-169.18600000000001</v>
+      </c>
+      <c r="R58">
+        <v>43373</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2206.808</v>
+      </c>
+      <c r="U58">
+        <v>647.60599999999999</v>
+      </c>
+      <c r="V58">
+        <v>71.7</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-59.902000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-151.94</v>
+      </c>
+      <c r="AA58">
+        <v>100.517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>75.558999999999997</v>
+      </c>
+      <c r="D59">
+        <v>330.05099999999999</v>
+      </c>
+      <c r="E59">
+        <v>265.61099999999999</v>
+      </c>
+      <c r="F59">
+        <v>166.74799999999999</v>
+      </c>
+      <c r="G59">
+        <v>1805.424</v>
+      </c>
+      <c r="H59">
+        <v>2574.4499999999998</v>
+      </c>
+      <c r="I59">
+        <v>36.302</v>
+      </c>
+      <c r="J59">
+        <v>41.707000000000001</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>245.774</v>
+      </c>
+      <c r="O59">
+        <v>368.21499999999997</v>
+      </c>
+      <c r="P59">
+        <v>45.378</v>
+      </c>
+      <c r="Q59">
+        <v>-103.248</v>
+      </c>
+      <c r="R59">
+        <v>43465</v>
+      </c>
+      <c r="S59">
+        <v>6220</v>
+      </c>
+      <c r="T59">
+        <v>2206.2350000000001</v>
+      </c>
+      <c r="U59">
+        <v>544.35799999999995</v>
+      </c>
+      <c r="V59">
+        <v>113.05</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-64.518000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-14.83</v>
+      </c>
+      <c r="AA59">
+        <v>75.558999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>55.158999999999999</v>
+      </c>
+      <c r="D60">
+        <v>315.04700000000003</v>
+      </c>
+      <c r="E60">
+        <v>237.43700000000001</v>
+      </c>
+      <c r="F60">
+        <v>148.911</v>
+      </c>
+      <c r="G60">
+        <v>1792.0940000000001</v>
+      </c>
+      <c r="H60">
+        <v>2628.7359999999999</v>
+      </c>
+      <c r="I60">
+        <v>39.97</v>
+      </c>
+      <c r="J60">
+        <v>40.779000000000003</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-0.91100000000000003</v>
+      </c>
+      <c r="N60">
+        <v>209.816</v>
+      </c>
+      <c r="O60">
+        <v>360.44799999999998</v>
+      </c>
+      <c r="P60">
+        <v>68.638000000000005</v>
+      </c>
+      <c r="Q60">
+        <v>7.4459999999999997</v>
+      </c>
+      <c r="R60">
+        <v>43555</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2268.288</v>
+      </c>
+      <c r="U60">
+        <v>548.93799999999999</v>
+      </c>
+      <c r="V60">
+        <v>43.655000000000001</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-7.06</v>
+      </c>
+      <c r="Y60">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="Z60">
+        <v>24.754999999999999</v>
+      </c>
+      <c r="AA60">
+        <v>55.158999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>72.272000000000006</v>
+      </c>
+      <c r="D61">
+        <v>363.76900000000001</v>
+      </c>
+      <c r="E61">
+        <v>273.697</v>
+      </c>
+      <c r="F61">
+        <v>180.23699999999999</v>
+      </c>
+      <c r="G61">
+        <v>1863.0820000000001</v>
+      </c>
+      <c r="H61">
+        <v>2737.4160000000002</v>
+      </c>
+      <c r="I61">
+        <v>38.015999999999998</v>
+      </c>
+      <c r="J61">
+        <v>39.845999999999997</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>222.22800000000001</v>
+      </c>
+      <c r="O61">
+        <v>370.05500000000001</v>
+      </c>
+      <c r="P61">
+        <v>70.572999999999993</v>
+      </c>
+      <c r="Q61">
+        <v>-18.827000000000002</v>
+      </c>
+      <c r="R61">
+        <v>43646</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2367.3609999999999</v>
+      </c>
+      <c r="U61">
+        <v>530.01300000000003</v>
+      </c>
+      <c r="V61">
+        <v>58.124000000000002</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="Y61">
+        <v>21.375</v>
+      </c>
+      <c r="Z61">
+        <v>-29.902999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>72.272000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>57.253</v>
+      </c>
+      <c r="D62">
+        <v>329.13799999999998</v>
+      </c>
+      <c r="E62">
+        <v>263.53199999999998</v>
+      </c>
+      <c r="F62">
+        <v>152.858</v>
+      </c>
+      <c r="G62">
+        <v>1865.5150000000001</v>
+      </c>
+      <c r="H62">
+        <v>2730.904</v>
+      </c>
+      <c r="I62">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="J62">
+        <v>38.908999999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>205.56299999999999</v>
+      </c>
+      <c r="O62">
+        <v>350.24400000000003</v>
+      </c>
+      <c r="P62">
+        <v>69.099000000000004</v>
+      </c>
+      <c r="Q62">
+        <v>50.140999999999998</v>
+      </c>
+      <c r="R62">
+        <v>43738</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2380.66</v>
+      </c>
+      <c r="U62">
+        <v>580.32899999999995</v>
+      </c>
+      <c r="V62">
+        <v>91.802999999999997</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-22.881</v>
+      </c>
+      <c r="Y62">
+        <v>21.152999999999999</v>
+      </c>
+      <c r="Z62">
+        <v>15.975</v>
+      </c>
+      <c r="AA62">
+        <v>57.253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-4.45</v>
+      </c>
+      <c r="D63">
+        <v>306.62700000000001</v>
+      </c>
+      <c r="E63">
+        <v>248.124</v>
+      </c>
+      <c r="F63">
+        <v>124.203</v>
+      </c>
+      <c r="G63">
+        <v>1896.634</v>
+      </c>
+      <c r="H63">
+        <v>2730.4360000000001</v>
+      </c>
+      <c r="I63">
+        <v>27.329000000000001</v>
+      </c>
+      <c r="J63">
+        <v>37.968000000000004</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>191.904</v>
+      </c>
+      <c r="O63">
+        <v>327.99299999999999</v>
+      </c>
+      <c r="P63">
+        <v>67.418000000000006</v>
+      </c>
+      <c r="Q63">
+        <v>99.866</v>
+      </c>
+      <c r="R63">
+        <v>43830</v>
+      </c>
+      <c r="S63">
+        <v>5960</v>
+      </c>
+      <c r="T63">
+        <v>2402.4430000000002</v>
+      </c>
+      <c r="U63">
+        <v>680.07</v>
+      </c>
+      <c r="V63">
+        <v>129.93899999999999</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-10.042999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>20.41</v>
+      </c>
+      <c r="Z63">
+        <v>-3.0489999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>-4.45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>36.402999999999999</v>
+      </c>
+      <c r="D64">
+        <v>249.24199999999999</v>
+      </c>
+      <c r="E64">
+        <v>209.292</v>
+      </c>
+      <c r="F64">
+        <v>102.876</v>
+      </c>
+      <c r="G64">
+        <v>1874.5260000000001</v>
+      </c>
+      <c r="H64">
+        <v>2680.134</v>
+      </c>
+      <c r="I64">
+        <v>39.648000000000003</v>
+      </c>
+      <c r="J64">
+        <v>37.021999999999998</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-0.92800000000000005</v>
+      </c>
+      <c r="N64">
+        <v>195.43199999999999</v>
+      </c>
+      <c r="O64">
+        <v>324.20400000000001</v>
+      </c>
+      <c r="P64">
+        <v>45.744999999999997</v>
+      </c>
+      <c r="Q64">
+        <v>-110.643</v>
+      </c>
+      <c r="R64">
+        <v>43921</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2355.9299999999998</v>
+      </c>
+      <c r="U64">
+        <v>570.05799999999999</v>
+      </c>
+      <c r="V64">
+        <v>56.780999999999999</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-20.792000000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-122.17100000000001</v>
+      </c>
+      <c r="AA64">
+        <v>36.402999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>38.225999999999999</v>
+      </c>
+      <c r="D65">
+        <v>296.411</v>
+      </c>
+      <c r="E65">
+        <v>211.917</v>
+      </c>
+      <c r="F65">
+        <v>136.44900000000001</v>
+      </c>
+      <c r="G65">
+        <v>1950.5260000000001</v>
+      </c>
+      <c r="H65">
+        <v>2758.7359999999999</v>
+      </c>
+      <c r="I65">
+        <v>42.261000000000003</v>
+      </c>
+      <c r="J65">
+        <v>36.070999999999998</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>195.286</v>
+      </c>
+      <c r="O65">
+        <v>321.43</v>
+      </c>
+      <c r="P65">
+        <v>44.984000000000002</v>
+      </c>
+      <c r="Q65">
+        <v>177.70099999999999</v>
+      </c>
+      <c r="R65">
+        <v>44012</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2437.306</v>
+      </c>
+      <c r="U65">
+        <v>747.85900000000004</v>
+      </c>
+      <c r="V65">
+        <v>73.474999999999994</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-2.6789999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>123.762</v>
+      </c>
+      <c r="AA65">
+        <v>38.225999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>35.603999999999999</v>
+      </c>
+      <c r="D66">
+        <v>318.44099999999997</v>
+      </c>
+      <c r="E66">
+        <v>247.12299999999999</v>
+      </c>
+      <c r="F66">
+        <v>152.792</v>
+      </c>
+      <c r="G66">
+        <v>2031.653</v>
+      </c>
+      <c r="H66">
+        <v>2794.9319999999998</v>
+      </c>
+      <c r="I66">
+        <v>37.375</v>
+      </c>
+      <c r="J66">
+        <v>35.116999999999997</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>201.44499999999999</v>
+      </c>
+      <c r="O66">
+        <v>323.858</v>
+      </c>
+      <c r="P66">
+        <v>44.481999999999999</v>
+      </c>
+      <c r="Q66">
+        <v>16.007999999999999</v>
+      </c>
+      <c r="R66">
+        <v>44104</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2471.0740000000001</v>
+      </c>
+      <c r="U66">
+        <v>763.92</v>
+      </c>
+      <c r="V66">
+        <v>69.760999999999996</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-2.0939999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-36.503999999999998</v>
+      </c>
+      <c r="AA66">
+        <v>35.603999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
         <v>49.338999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D67">
         <v>336.63</v>
       </c>
-      <c r="E42">
+      <c r="E67">
         <v>273.32</v>
       </c>
-      <c r="F42">
+      <c r="F67">
         <v>146.87899999999999</v>
       </c>
-      <c r="G42">
+      <c r="G67">
         <v>2148.0770000000002</v>
       </c>
-      <c r="H42">
+      <c r="H67">
         <v>2935.7</v>
       </c>
-      <c r="I42">
+      <c r="I67">
         <v>25.748000000000001</v>
       </c>
-      <c r="J42">
+      <c r="J67">
         <v>34.76</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <v>214.578</v>
       </c>
-      <c r="O42">
+      <c r="O67">
         <v>341.589</v>
       </c>
-      <c r="P42">
+      <c r="P67">
         <v>62.795999999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q67">
         <v>112.503</v>
       </c>
-      <c r="R42">
+      <c r="R67">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S67">
         <v>6060</v>
       </c>
-      <c r="T42">
+      <c r="T67">
         <v>2594.1109999999999</v>
       </c>
-      <c r="U42">
+      <c r="U67">
         <v>876.23099999999999</v>
       </c>
-      <c r="V42">
+      <c r="V67">
         <v>85.317999999999998</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
         <v>15.484999999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y67">
         <v>18.448</v>
       </c>
-      <c r="Z42">
+      <c r="Z67">
         <v>22.582000000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA67">
         <v>49.338999999999999</v>
       </c>
     </row>
